--- a/src/test/java/testData/TestSuite1.xlsx
+++ b/src/test/java/testData/TestSuite1.xlsx
@@ -1,19 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10523"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{FAE4CC94-5445-4FBC-A37A-F458F7F585DF}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59347B25-94BD-2040-85F0-9BE10C966146}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16824" windowHeight="7512" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="21720" windowHeight="13440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
     <sheet name="TC01" sheetId="2" r:id="rId2"/>
     <sheet name="TC03" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
-  <oleSize ref="A1:J24"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="111">
   <si>
     <t>TCID</t>
   </si>
@@ -148,15 +147,9 @@
     <t>Click on sign in link</t>
   </si>
   <si>
-    <t>Enter Email Address</t>
-  </si>
-  <si>
     <t>Enter Password</t>
   </si>
   <si>
-    <t>Click on create an account</t>
-  </si>
-  <si>
     <t>http://automationpractice.com/</t>
   </si>
   <si>
@@ -226,15 +219,6 @@
     <t>login.createAccEmailAddr</t>
   </si>
   <si>
-    <t>login.allreadyRegEmailAddr</t>
-  </si>
-  <si>
-    <t>login.allReadyRegPass</t>
-  </si>
-  <si>
-    <t>login.submitbutton</t>
-  </si>
-  <si>
     <t>registration.mrRadionButton</t>
   </si>
   <si>
@@ -334,18 +318,6 @@
     <t>TC01</t>
   </si>
   <si>
-    <t>emailAddress</t>
-  </si>
-  <si>
-    <t>waitFor</t>
-  </si>
-  <si>
-    <t>waitfor</t>
-  </si>
-  <si>
-    <t>Waiting for</t>
-  </si>
-  <si>
     <t>TS23</t>
   </si>
   <si>
@@ -356,6 +328,36 @@
   </si>
   <si>
     <t>SucessMsg</t>
+  </si>
+  <si>
+    <t>https://www.hdfcbank.com/personal/products/loans/easyemi</t>
+  </si>
+  <si>
+    <t>Mouse Over on Products</t>
+  </si>
+  <si>
+    <t>mouseOver</t>
+  </si>
+  <si>
+    <t>homepage.products</t>
+  </si>
+  <si>
+    <t>Mouse Over on Loans</t>
+  </si>
+  <si>
+    <t>homepage.loans</t>
+  </si>
+  <si>
+    <t>Click On Home Loan</t>
+  </si>
+  <si>
+    <t>clickOnLink</t>
+  </si>
+  <si>
+    <t>homepage.homeLoan</t>
+  </si>
+  <si>
+    <t>navigate</t>
   </si>
 </sst>
 </file>
@@ -756,12 +758,12 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -772,9 +774,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -783,18 +785,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -812,22 +814,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="31.44140625" customWidth="1"/>
+    <col min="2" max="2" width="31.5" customWidth="1"/>
     <col min="3" max="3" width="11.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -847,120 +849,77 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>24</v>
+        <v>110</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>43</v>
+        <v>101</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>102</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>25</v>
+        <v>103</v>
       </c>
       <c r="D3" t="s">
-        <v>64</v>
+        <v>104</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>105</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>35</v>
+        <v>103</v>
       </c>
       <c r="D4" t="s">
-        <v>66</v>
+        <v>106</v>
       </c>
       <c r="E4" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>107</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>35</v>
+        <v>108</v>
       </c>
       <c r="D5" t="s">
-        <v>67</v>
+        <v>109</v>
       </c>
       <c r="E5" t="s">
         <v>6</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>68</v>
-      </c>
-      <c r="E6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" t="s">
-        <v>105</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="D7" t="s">
-        <v>68</v>
-      </c>
-      <c r="E7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>104</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="http://ohloh.net" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{DC2F91C4-E51D-9A4A-A5A3-56D4F25329C1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -974,16 +933,16 @@
       <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.44140625" customWidth="1"/>
-    <col min="4" max="4" width="50.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5" customWidth="1"/>
+    <col min="4" max="4" width="50.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -1003,21 +962,21 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C2" t="s">
         <v>24</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1028,13 +987,13 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1045,7 +1004,7 @@
         <v>35</v>
       </c>
       <c r="D4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E4" t="s">
         <v>6</v>
@@ -1054,110 +1013,110 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C5" t="s">
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C6" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D6" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E6" t="s">
         <v>6</v>
       </c>
       <c r="F6" s="9"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D7" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C8" t="s">
         <v>35</v>
       </c>
       <c r="D8" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E8" t="s">
         <v>6</v>
       </c>
       <c r="F8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C9" t="s">
         <v>35</v>
       </c>
       <c r="D9" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E9" t="s">
         <v>6</v>
       </c>
       <c r="F9" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
         <v>35</v>
       </c>
       <c r="D10" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E10" t="s">
         <v>6</v>
@@ -1166,252 +1125,252 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E11" t="s">
         <v>6</v>
       </c>
       <c r="F11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E12" t="s">
         <v>6</v>
       </c>
       <c r="F12" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E13" t="s">
         <v>6</v>
       </c>
       <c r="F13" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C14" t="s">
         <v>35</v>
       </c>
       <c r="D14" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E14" t="s">
         <v>6</v>
       </c>
       <c r="F14" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C15" t="s">
         <v>35</v>
       </c>
       <c r="D15" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E15" t="s">
         <v>6</v>
       </c>
       <c r="F15" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C16" t="s">
         <v>35</v>
       </c>
       <c r="D16" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E16" t="s">
         <v>6</v>
       </c>
       <c r="F16" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C17" t="s">
         <v>35</v>
       </c>
       <c r="D17" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E17" t="s">
         <v>6</v>
       </c>
       <c r="F17" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>33</v>
       </c>
       <c r="B18" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C18" t="s">
         <v>35</v>
       </c>
       <c r="D18" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E18" t="s">
         <v>6</v>
       </c>
       <c r="F18" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C19" t="s">
         <v>35</v>
       </c>
       <c r="D19" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E19" t="s">
         <v>6</v>
       </c>
       <c r="F19" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B20" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C20" t="s">
         <v>35</v>
       </c>
       <c r="D20" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E20" t="s">
         <v>6</v>
       </c>
       <c r="F20" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B21" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C21" t="s">
         <v>35</v>
       </c>
       <c r="D21" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E21" t="s">
         <v>6</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C22" t="s">
         <v>25</v>
       </c>
       <c r="D22" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E22" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B23" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C23" t="s">
         <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="E23" t="s">
         <v>6</v>
       </c>
       <c r="F23" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/java/testData/TestSuite1.xlsx
+++ b/src/test/java/testData/TestSuite1.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10523"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59347B25-94BD-2040-85F0-9BE10C966146}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89182250-7112-E94A-8727-1EDFC6E6B22D}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="21720" windowHeight="13440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="21720" windowHeight="13440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="112">
   <si>
     <t>TCID</t>
   </si>
@@ -39,9 +39,6 @@
     <t>N</t>
   </si>
   <si>
-    <t>LoginTest</t>
-  </si>
-  <si>
     <t>TC03</t>
   </si>
   <si>
@@ -358,6 +355,12 @@
   </si>
   <si>
     <t>navigate</t>
+  </si>
+  <si>
+    <t>Navigate to application site</t>
+  </si>
+  <si>
+    <t>Navigation Test</t>
   </si>
 </sst>
 </file>
@@ -754,8 +757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -776,32 +779,32 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>111</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
         <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
@@ -816,8 +819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -831,90 +834,90 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="F1" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="D3" t="s">
         <v>103</v>
       </c>
-      <c r="D3" t="s">
-        <v>104</v>
-      </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D4" t="s">
         <v>105</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="D4" t="s">
-        <v>106</v>
-      </c>
       <c r="E4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="D5" t="s">
         <v>108</v>
       </c>
-      <c r="D5" t="s">
-        <v>109</v>
-      </c>
       <c r="E5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -944,433 +947,433 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" t="s">
         <v>35</v>
-      </c>
-      <c r="D4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F6" s="9"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" t="s">
         <v>46</v>
       </c>
-      <c r="C11" t="s">
-        <v>47</v>
-      </c>
       <c r="E11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" t="s">
         <v>34</v>
       </c>
-      <c r="B19" t="s">
-        <v>57</v>
-      </c>
-      <c r="C19" t="s">
-        <v>35</v>
-      </c>
       <c r="D19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E21" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E22" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>96</v>
+      </c>
+      <c r="B23" t="s">
         <v>97</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
         <v>98</v>
       </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" t="s">
         <v>99</v>
-      </c>
-      <c r="E23" t="s">
-        <v>6</v>
-      </c>
-      <c r="F23" t="s">
-        <v>100</v>
       </c>
     </row>
   </sheetData>
